--- a/cursos/2021-2022/alumnos/2_SEA-ICT.xlsx
+++ b/cursos/2021-2022/alumnos/2_SEA-ICT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cferrerobonet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cferrerobonet/Documents/04 DESARROLLADOR/Web/EPLA/AUTOEXAM/cursos/2021-2022/alumnos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A42573C-0DFC-194A-9061-062EA222A08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8051F-75F1-EA42-801C-8F73B54E5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ASIGNATURA:</t>
   </si>
@@ -43,81 +43,6 @@
   </si>
   <si>
     <t>_Ferrero Bonet, Carlos</t>
-  </si>
-  <si>
-    <t>CEBRIÁN VEGA, PABLO</t>
-  </si>
-  <si>
-    <t>APARICIO ABAD, EMILIO</t>
-  </si>
-  <si>
-    <t>BERMÚDEZ NÁPOLES, CARLOS EDUARDO</t>
-  </si>
-  <si>
-    <t>CABRIADA IBÁÑEZ, PEDRO</t>
-  </si>
-  <si>
-    <t>CAMPOS FENECH, ANTONIO</t>
-  </si>
-  <si>
-    <t>CASTILLEJOS GARAY, ALBERTO</t>
-  </si>
-  <si>
-    <t>CATALÁ JUESAS, DAVID</t>
-  </si>
-  <si>
-    <t>FERNÁNDEZ BERNAD, JAVIER</t>
-  </si>
-  <si>
-    <t>FERRER CASTELLANO, ELVIS</t>
-  </si>
-  <si>
-    <t>GALLARDO LIZONDO, JAVIER</t>
-  </si>
-  <si>
-    <t>GARCÍA REAL, JUAN</t>
-  </si>
-  <si>
-    <t>GEA GINER, ELISEO</t>
-  </si>
-  <si>
-    <t>GIMENO VICENTE, MARTA</t>
-  </si>
-  <si>
-    <t>GONZÁLEZ ÁLVAREZ, CARLOS</t>
-  </si>
-  <si>
-    <t>JAVALOYAS HARO, ALEJANDRO</t>
-  </si>
-  <si>
-    <t>LÓPEZ ARAUJO, JESSI</t>
-  </si>
-  <si>
-    <t>LUQUE FERRANDO, MANUEL</t>
-  </si>
-  <si>
-    <t>MARÍ CABRERA, RAMÓN</t>
-  </si>
-  <si>
-    <t>MARÍN DEL OLMO, FRANCISCO</t>
-  </si>
-  <si>
-    <t>MATEO SOTO, XAVI</t>
-  </si>
-  <si>
-    <t>MOYA GINER, RAÚL</t>
-  </si>
-  <si>
-    <t>PALLARÉS ALARCÓN, CARLOS</t>
-  </si>
-  <si>
-    <t>RODRÍGUEZ DELER, CARLOS</t>
-  </si>
-  <si>
-    <t>RODRÍGUEZ LIKHLAL, MANUEL</t>
-  </si>
-  <si>
-    <t>SORIA FUENTES, ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -161,12 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A28"/>
+      <selection activeCell="A4" sqref="A4:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -473,132 +395,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
